--- a/data/Aradas/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Aradas/archetypes/pop_archetypes_transport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262504F0-5CAA-465B-8A61-FBB91F42EB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0049A581-A708-4CC3-AF35-E5C354E5BB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="2064" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>price_sigma</t>
+  </si>
+  <si>
+    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B10" sqref="B10:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,11 +1327,84 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="6"/>
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9999</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="T10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">

--- a/data/Aradas/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Aradas/archetypes/pop_archetypes_transport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0049A581-A708-4CC3-AF35-E5C354E5BB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262504F0-5CAA-465B-8A61-FBB91F42EB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="2064" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>price_sigma</t>
-  </si>
-  <si>
-    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -569,7 +566,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:Z10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1327,84 +1324,11 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-      <c r="K10">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="P10" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>9999</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.41949999999999998</v>
-      </c>
-      <c r="T10">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>80</v>
-      </c>
-      <c r="X10">
-        <v>10</v>
-      </c>
-      <c r="Y10">
-        <v>60</v>
-      </c>
-      <c r="Z10">
-        <v>100</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">

--- a/data/Aradas/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Aradas/archetypes/pop_archetypes_transport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262504F0-5CAA-465B-8A61-FBB91F42EB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB263F3-B1AE-410D-80A9-159A1F2BDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>price_sigma</t>
+  </si>
+  <si>
+    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -566,7 +574,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B10" sqref="B10:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,55 +1332,135 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="6"/>
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9999</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <f>O10*0.5</f>
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="T10" s="9">
+        <f>P10*0.5</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 S4:XFD4 T4:T7 A10:L10 A11:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
+  <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 S4:XFD4 T4:T7 A11:XFD1048576 A10:J10 S10:Z10">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:P4">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:P8">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:P8">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O3:XFD3">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:R10">
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S7">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:T10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="S8:T9">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:XFD10">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="U5:XFD9 AA10:XFD10">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:P10">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Aradas/archetypes/pop_archetypes_transport.xlsx
+++ b/data/Aradas/archetypes/pop_archetypes_transport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Aradas\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB263F3-B1AE-410D-80A9-159A1F2BDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4A2CC-B1B3-4BC9-ABA9-273852D67F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,12 +244,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -574,7 +569,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:Z10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,10 +1345,10 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>37</v>
       </c>
       <c r="I10">
@@ -1362,16 +1357,16 @@
       <c r="J10">
         <v>0.1</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
         <v>0</v>
       </c>
       <c r="O10" s="2">
@@ -1386,18 +1381,16 @@
       <c r="R10" s="5">
         <v>0</v>
       </c>
-      <c r="S10" s="9">
-        <f>O10*0.5</f>
+      <c r="S10">
         <v>0.41949999999999998</v>
       </c>
-      <c r="T10" s="9">
-        <f>P10*0.5</f>
+      <c r="T10">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="U10" s="8">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
@@ -1415,52 +1408,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 S4:XFD4 T4:T7 A11:XFD1048576 A10:J10 S10:Z10">
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+  <conditionalFormatting sqref="J1:XFD1 A1:I6 M2:XFD2 J2:J6 S4:XFD4 T4:T7 A10:L10 A11:XFD1048576">
+    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:P4">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:P8">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:XFD3">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:R10">
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S7">
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:T9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="S8:T10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:XFD9 AA10:XFD10">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10:P10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="U5:XFD10">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
